--- a/data/ears/data/raw/DRI_summary_tables.xlsx
+++ b/data/ears/data/raw/DRI_summary_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrient_endowment/data/ears/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789CCFB-150D-3342-AD75-CA3E4600054C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D3BCDB-86CE-7146-87C1-712355AAA6DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="205">
   <si>
     <t>Males</t>
   </si>
@@ -51,72 +51,6 @@
     <t>EAR</t>
   </si>
   <si>
-    <t>Pages 530-532</t>
-  </si>
-  <si>
-    <t>Pages 530-534</t>
-  </si>
-  <si>
-    <t>Pages 530-535</t>
-  </si>
-  <si>
-    <t>Pages 530-537</t>
-  </si>
-  <si>
-    <t>Pages 530-538</t>
-  </si>
-  <si>
-    <t>Pages 530-539</t>
-  </si>
-  <si>
-    <t>Pages 530-540</t>
-  </si>
-  <si>
-    <t>Pages 530-541</t>
-  </si>
-  <si>
-    <t>Pages 530-542</t>
-  </si>
-  <si>
-    <t>Pages 530-544</t>
-  </si>
-  <si>
-    <t>Pages 530-545</t>
-  </si>
-  <si>
-    <t>Pages 530-546</t>
-  </si>
-  <si>
-    <t>Pages 530-547</t>
-  </si>
-  <si>
-    <t>Pages 530-548</t>
-  </si>
-  <si>
-    <t>Pages 530-549</t>
-  </si>
-  <si>
-    <t>Pages 530-551</t>
-  </si>
-  <si>
-    <t>Pages 530-552</t>
-  </si>
-  <si>
-    <t>Pages 530-553</t>
-  </si>
-  <si>
-    <t>Pages 530-555</t>
-  </si>
-  <si>
-    <t>Pages 530-556</t>
-  </si>
-  <si>
-    <t>Pages 530-557</t>
-  </si>
-  <si>
-    <t>pages</t>
-  </si>
-  <si>
     <t>5*</t>
   </si>
   <si>
@@ -636,12 +570,6 @@
     <t>1.4*</t>
   </si>
   <si>
-    <t>linoleic_acid</t>
-  </si>
-  <si>
-    <t>a_linoleic_acid</t>
-  </si>
-  <si>
     <t>0–6 mo</t>
   </si>
   <si>
@@ -705,10 +633,13 @@
     <t>19–70 yr</t>
   </si>
   <si>
-    <t>&gt; 70 yr</t>
-  </si>
-  <si>
     <t>19–50 yr</t>
+  </si>
+  <si>
+    <t>linoleic_acid_g</t>
+  </si>
+  <si>
+    <t>a_linoleic_acid_g</t>
   </si>
 </sst>
 </file>
@@ -1572,1563 +1503,1496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
+      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2">
+      <c r="Q2">
         <v>6.9</v>
       </c>
+      <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2">
+      <c r="V2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
       <c r="E3">
-        <v>100</v>
+        <v>0.87</v>
       </c>
       <c r="F3">
-        <v>0.87</v>
+        <v>210</v>
       </c>
       <c r="G3">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
         <v>0.4</v>
       </c>
       <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
         <v>0.4</v>
       </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
       <c r="M3">
-        <v>0.4</v>
+        <v>120</v>
       </c>
       <c r="N3">
-        <v>120</v>
+        <v>0.7</v>
       </c>
       <c r="O3">
-        <v>0.7</v>
+        <v>260</v>
       </c>
       <c r="P3">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
         <v>65</v>
       </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
       <c r="S3">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="T3">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="U3">
-        <v>380</v>
+        <v>17</v>
       </c>
       <c r="V3">
-        <v>17</v>
-      </c>
-      <c r="W3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
       <c r="E4">
-        <v>100</v>
+        <v>0.76</v>
       </c>
       <c r="F4">
-        <v>0.76</v>
+        <v>275</v>
       </c>
       <c r="G4">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
         <v>0.5</v>
       </c>
-      <c r="L4">
+      <c r="M4">
+        <v>160</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>340</v>
+      </c>
+      <c r="P4">
+        <v>65</v>
+      </c>
+      <c r="Q4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R4">
+        <v>110</v>
+      </c>
+      <c r="S4">
+        <v>17</v>
+      </c>
+      <c r="T4">
+        <v>405</v>
+      </c>
+      <c r="U4">
+        <v>23</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0.76</v>
+      </c>
+      <c r="F5">
+        <v>445</v>
+      </c>
+      <c r="G5">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>0.7</v>
+      </c>
+      <c r="J5">
+        <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>0.8</v>
+      </c>
+      <c r="M5">
+        <v>250</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
+        <v>540</v>
+      </c>
+      <c r="P5">
+        <v>73</v>
+      </c>
+      <c r="Q5">
+        <v>5.9</v>
+      </c>
+      <c r="R5">
+        <v>200</v>
+      </c>
+      <c r="S5">
+        <v>26</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1055</v>
+      </c>
+      <c r="U5">
+        <v>35</v>
+      </c>
+      <c r="V5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>0.73</v>
+      </c>
+      <c r="F6">
+        <v>630</v>
+      </c>
+      <c r="G6">
+        <v>63</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M6">
+        <v>330</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>685</v>
+      </c>
+      <c r="P6">
+        <v>95</v>
+      </c>
+      <c r="Q6">
+        <v>7.7</v>
+      </c>
+      <c r="R6">
+        <v>340</v>
+      </c>
+      <c r="S6">
+        <v>33</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1055</v>
+      </c>
+      <c r="U6">
+        <v>45</v>
+      </c>
+      <c r="V6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0.66</v>
+      </c>
+      <c r="F7">
+        <v>625</v>
+      </c>
+      <c r="G7">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M7">
+        <v>320</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>700</v>
+      </c>
+      <c r="P7">
+        <v>95</v>
+      </c>
+      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="M4">
-        <v>0.5</v>
-      </c>
-      <c r="N4">
-        <v>160</v>
-      </c>
-      <c r="O4">
+      <c r="R7">
+        <v>330</v>
+      </c>
+      <c r="S7">
+        <v>34</v>
+      </c>
+      <c r="T7">
+        <v>580</v>
+      </c>
+      <c r="U7">
+        <v>45</v>
+      </c>
+      <c r="V7">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>0.66</v>
+      </c>
+      <c r="F8">
+        <v>625</v>
+      </c>
+      <c r="G8">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>340</v>
-      </c>
-      <c r="Q4">
-        <v>65</v>
-      </c>
-      <c r="R4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="S4">
-        <v>110</v>
-      </c>
-      <c r="T4">
-        <v>17</v>
-      </c>
-      <c r="U4">
-        <v>405</v>
-      </c>
-      <c r="V4">
-        <v>23</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="J8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M8">
+        <v>320</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>700</v>
+      </c>
+      <c r="P8">
+        <v>95</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>350</v>
+      </c>
+      <c r="S8">
+        <v>34</v>
+      </c>
+      <c r="T8">
+        <v>580</v>
+      </c>
+      <c r="U8">
+        <v>45</v>
+      </c>
+      <c r="V8">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="D9">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="E9">
+        <v>0.66</v>
+      </c>
+      <c r="F9">
+        <v>625</v>
+      </c>
+      <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>1.4</v>
+      </c>
+      <c r="M9">
+        <v>320</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>700</v>
+      </c>
+      <c r="P9">
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>350</v>
+      </c>
+      <c r="S9">
+        <v>34</v>
+      </c>
+      <c r="T9">
+        <v>580</v>
+      </c>
+      <c r="U9">
+        <v>45</v>
+      </c>
+      <c r="V9">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>0.66</v>
+      </c>
+      <c r="F10">
+        <v>625</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>1.4</v>
+      </c>
+      <c r="M10">
+        <v>320</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>700</v>
+      </c>
+      <c r="P10">
+        <v>95</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>350</v>
+      </c>
+      <c r="S10">
+        <v>34</v>
+      </c>
+      <c r="T10">
+        <v>580</v>
+      </c>
+      <c r="U10">
+        <v>45</v>
+      </c>
+      <c r="V10">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
         <v>0.76</v>
       </c>
-      <c r="G5">
-        <v>445</v>
-      </c>
-      <c r="H5">
+      <c r="F11">
+        <v>420</v>
+      </c>
+      <c r="G11">
         <v>39</v>
       </c>
-      <c r="I5">
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="J5">
+      <c r="I11">
         <v>0.7</v>
       </c>
-      <c r="K5">
+      <c r="J11">
         <v>0.8</v>
       </c>
-      <c r="L5">
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="M5">
+      <c r="L11">
         <v>0.8</v>
       </c>
-      <c r="N5">
+      <c r="M11">
         <v>250</v>
       </c>
-      <c r="O5">
+      <c r="N11">
         <v>1.5</v>
       </c>
-      <c r="P5">
+      <c r="O11">
         <v>540</v>
       </c>
-      <c r="Q5">
+      <c r="P11">
         <v>73</v>
       </c>
-      <c r="R5">
-        <v>5.9</v>
-      </c>
-      <c r="S5">
+      <c r="Q11">
+        <v>5.7</v>
+      </c>
+      <c r="R11">
         <v>200</v>
       </c>
-      <c r="T5">
+      <c r="S11">
         <v>26</v>
       </c>
-      <c r="U5" s="2">
+      <c r="T11" s="2">
         <v>1055</v>
       </c>
-      <c r="V5">
+      <c r="U11">
         <v>35</v>
       </c>
-      <c r="W5">
+      <c r="V11">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>0.71</v>
+      </c>
+      <c r="F12">
+        <v>485</v>
+      </c>
+      <c r="G12">
+        <v>56</v>
+      </c>
+      <c r="H12">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>0.73</v>
-      </c>
-      <c r="G6">
-        <v>630</v>
-      </c>
-      <c r="H6">
-        <v>63</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N6">
-        <v>330</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>685</v>
-      </c>
-      <c r="Q6">
-        <v>95</v>
-      </c>
-      <c r="R6">
-        <v>7.7</v>
-      </c>
-      <c r="S6">
-        <v>340</v>
-      </c>
-      <c r="T6">
-        <v>33</v>
-      </c>
-      <c r="U6" s="2">
-        <v>1055</v>
-      </c>
-      <c r="V6">
-        <v>45</v>
-      </c>
-      <c r="W6">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>0.66</v>
-      </c>
-      <c r="G7">
-        <v>625</v>
-      </c>
-      <c r="H7">
-        <v>75</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
-      <c r="M7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N7">
-        <v>320</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>700</v>
-      </c>
-      <c r="Q7">
-        <v>95</v>
-      </c>
-      <c r="R7">
-        <v>6</v>
-      </c>
-      <c r="S7">
-        <v>330</v>
-      </c>
-      <c r="T7">
-        <v>34</v>
-      </c>
-      <c r="U7">
-        <v>580</v>
-      </c>
-      <c r="V7">
-        <v>45</v>
-      </c>
-      <c r="W7">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>0.66</v>
-      </c>
-      <c r="G8">
-        <v>625</v>
-      </c>
-      <c r="H8">
-        <v>75</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L8">
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N8">
-        <v>320</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>700</v>
-      </c>
-      <c r="Q8">
-        <v>95</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>350</v>
-      </c>
-      <c r="T8">
-        <v>34</v>
-      </c>
-      <c r="U8">
-        <v>580</v>
-      </c>
-      <c r="V8">
-        <v>45</v>
-      </c>
-      <c r="W8">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>0.66</v>
-      </c>
-      <c r="G9">
-        <v>625</v>
-      </c>
-      <c r="H9">
-        <v>75</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
-      <c r="M9">
-        <v>1.4</v>
-      </c>
-      <c r="N9">
-        <v>320</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>700</v>
-      </c>
-      <c r="Q9">
-        <v>95</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="S9">
-        <v>350</v>
-      </c>
-      <c r="T9">
-        <v>34</v>
-      </c>
-      <c r="U9">
-        <v>580</v>
-      </c>
-      <c r="V9">
-        <v>45</v>
-      </c>
-      <c r="W9">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>0.66</v>
-      </c>
-      <c r="G10">
-        <v>625</v>
-      </c>
-      <c r="H10">
-        <v>75</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <v>1.4</v>
-      </c>
-      <c r="N10">
-        <v>320</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <v>700</v>
-      </c>
-      <c r="Q10">
-        <v>95</v>
-      </c>
-      <c r="R10">
-        <v>6</v>
-      </c>
-      <c r="S10">
-        <v>350</v>
-      </c>
-      <c r="T10">
-        <v>34</v>
-      </c>
-      <c r="U10">
-        <v>580</v>
-      </c>
-      <c r="V10">
-        <v>45</v>
-      </c>
-      <c r="W10">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>0.76</v>
-      </c>
-      <c r="G11">
-        <v>420</v>
-      </c>
-      <c r="H11">
-        <v>39</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <v>0.7</v>
-      </c>
-      <c r="K11">
-        <v>0.8</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>0.8</v>
-      </c>
-      <c r="N11">
-        <v>250</v>
-      </c>
-      <c r="O11">
-        <v>1.5</v>
-      </c>
-      <c r="P11">
-        <v>540</v>
-      </c>
-      <c r="Q11">
-        <v>73</v>
-      </c>
-      <c r="R11">
-        <v>5.7</v>
-      </c>
-      <c r="S11">
-        <v>200</v>
-      </c>
-      <c r="T11">
-        <v>26</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1055</v>
-      </c>
-      <c r="V11">
-        <v>35</v>
-      </c>
-      <c r="W11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>0.71</v>
-      </c>
-      <c r="G12">
-        <v>485</v>
-      </c>
-      <c r="H12">
-        <v>56</v>
-      </c>
       <c r="I12">
-        <v>12</v>
+        <v>0.9</v>
       </c>
       <c r="J12">
         <v>0.9</v>
       </c>
       <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>330</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>685</v>
+      </c>
+      <c r="P12">
+        <v>95</v>
+      </c>
+      <c r="Q12">
+        <v>7.9</v>
+      </c>
+      <c r="R12">
+        <v>300</v>
+      </c>
+      <c r="S12">
+        <v>33</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1055</v>
+      </c>
+      <c r="U12">
+        <v>45</v>
+      </c>
+      <c r="V12">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>0.66</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
         <v>0.9</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>330</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <v>685</v>
-      </c>
-      <c r="Q12">
-        <v>95</v>
-      </c>
-      <c r="R12">
-        <v>7.9</v>
-      </c>
-      <c r="S12">
-        <v>300</v>
-      </c>
-      <c r="T12">
-        <v>33</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1055</v>
-      </c>
-      <c r="V12">
-        <v>45</v>
-      </c>
-      <c r="W12">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>0.66</v>
-      </c>
-      <c r="G13">
-        <v>500</v>
-      </c>
-      <c r="H13">
-        <v>60</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
       </c>
       <c r="J13">
         <v>0.9</v>
       </c>
       <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M13">
+        <v>320</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>700</v>
+      </c>
+      <c r="P13">
+        <v>95</v>
+      </c>
+      <c r="Q13">
+        <v>8.1</v>
+      </c>
+      <c r="R13">
+        <v>255</v>
+      </c>
+      <c r="S13">
+        <v>34</v>
+      </c>
+      <c r="T13">
+        <v>580</v>
+      </c>
+      <c r="U13">
+        <v>45</v>
+      </c>
+      <c r="V13">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>0.66</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
         <v>0.9</v>
-      </c>
-      <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="M13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N13">
-        <v>320</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <v>700</v>
-      </c>
-      <c r="Q13">
-        <v>95</v>
-      </c>
-      <c r="R13">
-        <v>8.1</v>
-      </c>
-      <c r="S13">
-        <v>255</v>
-      </c>
-      <c r="T13">
-        <v>34</v>
-      </c>
-      <c r="U13">
-        <v>580</v>
-      </c>
-      <c r="V13">
-        <v>45</v>
-      </c>
-      <c r="W13">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>0.66</v>
-      </c>
-      <c r="G14">
-        <v>500</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
       </c>
       <c r="J14">
         <v>0.9</v>
       </c>
       <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M14">
+        <v>320</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>700</v>
+      </c>
+      <c r="P14">
+        <v>95</v>
+      </c>
+      <c r="Q14">
+        <v>8.1</v>
+      </c>
+      <c r="R14">
+        <v>265</v>
+      </c>
+      <c r="S14">
+        <v>34</v>
+      </c>
+      <c r="T14">
+        <v>580</v>
+      </c>
+      <c r="U14">
+        <v>45</v>
+      </c>
+      <c r="V14">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>0.66</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
         <v>0.9</v>
-      </c>
-      <c r="L14">
-        <v>11</v>
-      </c>
-      <c r="M14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N14">
-        <v>320</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-      <c r="P14">
-        <v>700</v>
-      </c>
-      <c r="Q14">
-        <v>95</v>
-      </c>
-      <c r="R14">
-        <v>8.1</v>
-      </c>
-      <c r="S14">
-        <v>265</v>
-      </c>
-      <c r="T14">
-        <v>34</v>
-      </c>
-      <c r="U14">
-        <v>580</v>
-      </c>
-      <c r="V14">
-        <v>45</v>
-      </c>
-      <c r="W14">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>0.66</v>
-      </c>
-      <c r="G15">
-        <v>500</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
       </c>
       <c r="J15">
         <v>0.9</v>
       </c>
       <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>1.3</v>
+      </c>
+      <c r="M15">
+        <v>320</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>700</v>
+      </c>
+      <c r="P15">
+        <v>95</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>265</v>
+      </c>
+      <c r="S15">
+        <v>34</v>
+      </c>
+      <c r="T15">
+        <v>580</v>
+      </c>
+      <c r="U15">
+        <v>45</v>
+      </c>
+      <c r="V15">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>0.66</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
         <v>0.9</v>
-      </c>
-      <c r="L15">
-        <v>11</v>
-      </c>
-      <c r="M15">
-        <v>1.3</v>
-      </c>
-      <c r="N15">
-        <v>320</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>700</v>
-      </c>
-      <c r="Q15">
-        <v>95</v>
-      </c>
-      <c r="R15">
-        <v>5</v>
-      </c>
-      <c r="S15">
-        <v>265</v>
-      </c>
-      <c r="T15">
-        <v>34</v>
-      </c>
-      <c r="U15">
-        <v>580</v>
-      </c>
-      <c r="V15">
-        <v>45</v>
-      </c>
-      <c r="W15">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>0.66</v>
-      </c>
-      <c r="G16">
-        <v>500</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
       </c>
       <c r="J16">
         <v>0.9</v>
       </c>
       <c r="K16">
-        <v>0.9</v>
+        <v>11</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>1.3</v>
       </c>
       <c r="M16">
-        <v>1.3</v>
+        <v>320</v>
       </c>
       <c r="N16">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="O16">
+        <v>700</v>
+      </c>
+      <c r="P16">
+        <v>95</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>265</v>
+      </c>
+      <c r="S16">
+        <v>34</v>
+      </c>
+      <c r="T16">
+        <v>580</v>
+      </c>
+      <c r="U16">
+        <v>45</v>
+      </c>
+      <c r="V16">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="P16">
-        <v>700</v>
-      </c>
-      <c r="Q16">
-        <v>95</v>
-      </c>
-      <c r="R16">
-        <v>5</v>
-      </c>
-      <c r="S16">
-        <v>265</v>
-      </c>
-      <c r="T16">
-        <v>34</v>
-      </c>
-      <c r="U16">
-        <v>580</v>
-      </c>
-      <c r="V16">
-        <v>45</v>
-      </c>
-      <c r="W16">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D17">
+        <v>135</v>
+      </c>
       <c r="E17">
-        <v>135</v>
+        <v>0.88</v>
       </c>
       <c r="F17">
-        <v>0.88</v>
+        <v>530</v>
       </c>
       <c r="G17">
-        <v>530</v>
+        <v>66</v>
       </c>
       <c r="H17">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I17">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="J17">
         <v>1.2</v>
       </c>
       <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>1.6</v>
+      </c>
+      <c r="M17">
+        <v>520</v>
+      </c>
+      <c r="N17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O17">
+        <v>785</v>
+      </c>
+      <c r="P17">
+        <v>160</v>
+      </c>
+      <c r="Q17">
+        <v>23</v>
+      </c>
+      <c r="R17">
+        <v>335</v>
+      </c>
+      <c r="S17">
+        <v>40</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1055</v>
+      </c>
+      <c r="U17">
+        <v>49</v>
+      </c>
+      <c r="V17">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <v>0.88</v>
+      </c>
+      <c r="F18">
+        <v>550</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
         <v>1.2</v>
-      </c>
-      <c r="L17">
-        <v>14</v>
-      </c>
-      <c r="M17">
-        <v>1.6</v>
-      </c>
-      <c r="N17">
-        <v>520</v>
-      </c>
-      <c r="O17">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P17">
-        <v>785</v>
-      </c>
-      <c r="Q17">
-        <v>160</v>
-      </c>
-      <c r="R17">
-        <v>23</v>
-      </c>
-      <c r="S17">
-        <v>335</v>
-      </c>
-      <c r="T17">
-        <v>40</v>
-      </c>
-      <c r="U17" s="2">
-        <v>1055</v>
-      </c>
-      <c r="V17">
-        <v>49</v>
-      </c>
-      <c r="W17">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>135</v>
-      </c>
-      <c r="F18">
-        <v>0.88</v>
-      </c>
-      <c r="G18">
-        <v>550</v>
-      </c>
-      <c r="H18">
-        <v>70</v>
-      </c>
-      <c r="I18">
-        <v>12</v>
       </c>
       <c r="J18">
         <v>1.2</v>
       </c>
       <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>1.6</v>
+      </c>
+      <c r="M18">
+        <v>520</v>
+      </c>
+      <c r="N18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O18">
+        <v>800</v>
+      </c>
+      <c r="P18">
+        <v>160</v>
+      </c>
+      <c r="Q18">
+        <v>22</v>
+      </c>
+      <c r="R18">
+        <v>290</v>
+      </c>
+      <c r="S18">
+        <v>40</v>
+      </c>
+      <c r="T18">
+        <v>580</v>
+      </c>
+      <c r="U18">
+        <v>49</v>
+      </c>
+      <c r="V18">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>135</v>
+      </c>
+      <c r="E19">
+        <v>0.88</v>
+      </c>
+      <c r="F19">
+        <v>550</v>
+      </c>
+      <c r="G19">
+        <v>70</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
         <v>1.2</v>
-      </c>
-      <c r="L18">
-        <v>14</v>
-      </c>
-      <c r="M18">
-        <v>1.6</v>
-      </c>
-      <c r="N18">
-        <v>520</v>
-      </c>
-      <c r="O18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P18">
-        <v>800</v>
-      </c>
-      <c r="Q18">
-        <v>160</v>
-      </c>
-      <c r="R18">
-        <v>22</v>
-      </c>
-      <c r="S18">
-        <v>290</v>
-      </c>
-      <c r="T18">
-        <v>40</v>
-      </c>
-      <c r="U18">
-        <v>580</v>
-      </c>
-      <c r="V18">
-        <v>49</v>
-      </c>
-      <c r="W18">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>135</v>
-      </c>
-      <c r="F19">
-        <v>0.88</v>
-      </c>
-      <c r="G19">
-        <v>550</v>
-      </c>
-      <c r="H19">
-        <v>70</v>
-      </c>
-      <c r="I19">
-        <v>12</v>
       </c>
       <c r="J19">
         <v>1.2</v>
       </c>
       <c r="K19">
+        <v>14</v>
+      </c>
+      <c r="L19">
+        <v>1.6</v>
+      </c>
+      <c r="M19">
+        <v>520</v>
+      </c>
+      <c r="N19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O19">
+        <v>800</v>
+      </c>
+      <c r="P19">
+        <v>160</v>
+      </c>
+      <c r="Q19">
+        <v>22</v>
+      </c>
+      <c r="R19">
+        <v>300</v>
+      </c>
+      <c r="S19">
+        <v>40</v>
+      </c>
+      <c r="T19">
+        <v>580</v>
+      </c>
+      <c r="U19">
+        <v>49</v>
+      </c>
+      <c r="V19">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>160</v>
+      </c>
+      <c r="E20">
+        <v>1.05</v>
+      </c>
+      <c r="F20">
+        <v>885</v>
+      </c>
+      <c r="G20">
+        <v>96</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
         <v>1.2</v>
       </c>
-      <c r="L19">
-        <v>14</v>
-      </c>
-      <c r="M19">
-        <v>1.6</v>
-      </c>
-      <c r="N19">
-        <v>520</v>
-      </c>
-      <c r="O19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P19">
-        <v>800</v>
-      </c>
-      <c r="Q19">
+      <c r="J20">
+        <v>1.3</v>
+      </c>
+      <c r="K20">
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <v>1.7</v>
+      </c>
+      <c r="M20">
+        <v>450</v>
+      </c>
+      <c r="N20">
+        <v>2.4</v>
+      </c>
+      <c r="O20">
+        <v>985</v>
+      </c>
+      <c r="P20">
+        <v>209</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>300</v>
+      </c>
+      <c r="S20">
+        <v>35</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1055</v>
+      </c>
+      <c r="U20">
+        <v>59</v>
+      </c>
+      <c r="V20">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
         <v>160</v>
       </c>
-      <c r="R19">
-        <v>22</v>
-      </c>
-      <c r="S19">
-        <v>300</v>
-      </c>
-      <c r="T19">
-        <v>40</v>
-      </c>
-      <c r="U19">
+      <c r="E21">
+        <v>1.05</v>
+      </c>
+      <c r="F21">
+        <v>900</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>1.2</v>
+      </c>
+      <c r="J21">
+        <v>1.3</v>
+      </c>
+      <c r="K21">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <v>1.7</v>
+      </c>
+      <c r="M21">
+        <v>450</v>
+      </c>
+      <c r="N21">
+        <v>2.4</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="P21">
+        <v>209</v>
+      </c>
+      <c r="Q21">
+        <v>6.5</v>
+      </c>
+      <c r="R21">
+        <v>255</v>
+      </c>
+      <c r="S21">
+        <v>36</v>
+      </c>
+      <c r="T21">
         <v>580</v>
       </c>
-      <c r="V19">
-        <v>49</v>
-      </c>
-      <c r="W19">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="U21">
+        <v>59</v>
+      </c>
+      <c r="V21">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E20">
+      <c r="D22">
         <v>160</v>
       </c>
-      <c r="F20">
+      <c r="E22">
         <v>1.05</v>
       </c>
-      <c r="G20">
-        <v>885</v>
-      </c>
-      <c r="H20">
-        <v>96</v>
-      </c>
-      <c r="I20">
+      <c r="F22">
+        <v>900</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
         <v>16</v>
       </c>
-      <c r="J20">
+      <c r="I22">
         <v>1.2</v>
       </c>
-      <c r="K20">
+      <c r="J22">
         <v>1.3</v>
       </c>
-      <c r="L20">
+      <c r="K22">
         <v>13</v>
       </c>
-      <c r="M20">
+      <c r="L22">
         <v>1.7</v>
       </c>
-      <c r="N20">
+      <c r="M22">
         <v>450</v>
       </c>
-      <c r="O20">
+      <c r="N22">
         <v>2.4</v>
       </c>
-      <c r="P20">
-        <v>985</v>
-      </c>
-      <c r="Q20">
+      <c r="O22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="P22">
         <v>209</v>
       </c>
-      <c r="R20">
-        <v>7</v>
-      </c>
-      <c r="S20">
-        <v>300</v>
-      </c>
-      <c r="T20">
-        <v>35</v>
-      </c>
-      <c r="U20" s="2">
-        <v>1055</v>
-      </c>
-      <c r="V20">
+      <c r="Q22">
+        <v>6.5</v>
+      </c>
+      <c r="R22">
+        <v>265</v>
+      </c>
+      <c r="S22">
+        <v>36</v>
+      </c>
+      <c r="T22">
+        <v>580</v>
+      </c>
+      <c r="U22">
         <v>59</v>
       </c>
-      <c r="W20">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>160</v>
-      </c>
-      <c r="F21">
-        <v>1.05</v>
-      </c>
-      <c r="G21">
-        <v>900</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="I21">
-        <v>16</v>
-      </c>
-      <c r="J21">
-        <v>1.2</v>
-      </c>
-      <c r="K21">
-        <v>1.3</v>
-      </c>
-      <c r="L21">
-        <v>13</v>
-      </c>
-      <c r="M21">
-        <v>1.7</v>
-      </c>
-      <c r="N21">
-        <v>450</v>
-      </c>
-      <c r="O21">
-        <v>2.4</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1000</v>
-      </c>
-      <c r="Q21">
-        <v>209</v>
-      </c>
-      <c r="R21">
-        <v>6.5</v>
-      </c>
-      <c r="S21">
-        <v>255</v>
-      </c>
-      <c r="T21">
-        <v>36</v>
-      </c>
-      <c r="U21">
-        <v>580</v>
-      </c>
-      <c r="V21">
-        <v>59</v>
-      </c>
-      <c r="W21">
+      <c r="V22">
         <v>10.4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>160</v>
-      </c>
-      <c r="F22">
-        <v>1.05</v>
-      </c>
-      <c r="G22">
-        <v>900</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22">
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <v>1.2</v>
-      </c>
-      <c r="K22">
-        <v>1.3</v>
-      </c>
-      <c r="L22">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>1.7</v>
-      </c>
-      <c r="N22">
-        <v>450</v>
-      </c>
-      <c r="O22">
-        <v>2.4</v>
-      </c>
-      <c r="P22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="Q22">
-        <v>209</v>
-      </c>
-      <c r="R22">
-        <v>6.5</v>
-      </c>
-      <c r="S22">
-        <v>265</v>
-      </c>
-      <c r="T22">
-        <v>36</v>
-      </c>
-      <c r="U22">
-        <v>580</v>
-      </c>
-      <c r="V22">
-        <v>59</v>
-      </c>
-      <c r="W22">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3164,52 +3028,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3217,49 +3081,49 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3270,46 +3134,46 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3317,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -3326,13 +3190,13 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>0.5</v>
@@ -3353,13 +3217,13 @@
         <v>0.9</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3367,7 +3231,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>400</v>
@@ -3376,13 +3240,13 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>0.6</v>
@@ -3403,13 +3267,13 @@
         <v>1.2</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3417,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>600</v>
@@ -3426,13 +3290,13 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>0.9</v>
@@ -3453,13 +3317,13 @@
         <v>1.8</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3467,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>900</v>
@@ -3476,13 +3340,13 @@
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>1.2</v>
@@ -3503,13 +3367,13 @@
         <v>2.4</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3517,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>900</v>
@@ -3526,13 +3390,13 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>1.2</v>
@@ -3553,13 +3417,13 @@
         <v>2.4</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P8" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3567,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>900</v>
@@ -3576,13 +3440,13 @@
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>1.2</v>
@@ -3603,13 +3467,13 @@
         <v>2.4</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P9" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -3617,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>900</v>
@@ -3626,13 +3490,13 @@
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>1.2</v>
@@ -3650,16 +3514,16 @@
         <v>400</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -3667,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>900</v>
@@ -3676,13 +3540,13 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>1.2</v>
@@ -3700,16 +3564,16 @@
         <v>400</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3717,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>600</v>
@@ -3726,13 +3590,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>0.9</v>
@@ -3753,13 +3617,13 @@
         <v>1.8</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -3767,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>700</v>
@@ -3776,13 +3640,13 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3797,19 +3661,19 @@
         <v>1.2</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="M13">
         <v>2.4</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -3817,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>700</v>
@@ -3826,13 +3690,13 @@
         <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H14">
         <v>1.1000000000000001</v>
@@ -3847,19 +3711,19 @@
         <v>1.3</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="M14">
         <v>2.4</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -3867,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>700</v>
@@ -3876,13 +3740,13 @@
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>1.1000000000000001</v>
@@ -3897,19 +3761,19 @@
         <v>1.3</v>
       </c>
       <c r="L15" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="M15">
         <v>2.4</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P15" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -3917,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>700</v>
@@ -3926,13 +3790,13 @@
         <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>1.1000000000000001</v>
@@ -3950,16 +3814,16 @@
         <v>400</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P16" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -3967,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>700</v>
@@ -3976,13 +3840,13 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H17">
         <v>1.1000000000000001</v>
@@ -4000,16 +3864,16 @@
         <v>400</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="O17" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P17" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4017,7 +3881,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <v>750</v>
@@ -4026,13 +3890,13 @@
         <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H18">
         <v>1.4</v>
@@ -4047,19 +3911,19 @@
         <v>1.9</v>
       </c>
       <c r="L18" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M18">
         <v>2.6</v>
       </c>
       <c r="N18" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P18" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4067,7 +3931,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>770</v>
@@ -4076,13 +3940,13 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H19">
         <v>1.4</v>
@@ -4097,19 +3961,19 @@
         <v>1.9</v>
       </c>
       <c r="L19" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M19">
         <v>2.6</v>
       </c>
       <c r="N19" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4117,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>770</v>
@@ -4126,13 +3990,13 @@
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>1.4</v>
@@ -4147,19 +4011,19 @@
         <v>1.9</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M20">
         <v>2.6</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O20" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P20" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4167,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2">
         <v>1200</v>
@@ -4176,13 +4040,13 @@
         <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>1.4</v>
@@ -4203,13 +4067,13 @@
         <v>2.8</v>
       </c>
       <c r="N21" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="P21" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -4217,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2">
         <v>1300</v>
@@ -4226,13 +4090,13 @@
         <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H22">
         <v>1.4</v>
@@ -4253,13 +4117,13 @@
         <v>2.8</v>
       </c>
       <c r="N22" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="P22" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4267,7 +4131,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2">
         <v>1300</v>
@@ -4276,13 +4140,13 @@
         <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H23">
         <v>1.4</v>
@@ -4303,13 +4167,13 @@
         <v>2.8</v>
       </c>
       <c r="N23" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="P23" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4186,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4348,55 +4212,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4404,52 +4268,52 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4460,49 +4324,49 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="H3">
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N3" s="5">
         <v>3</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4510,19 +4374,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G4">
         <v>90</v>
@@ -4534,7 +4398,7 @@
         <v>80</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="K4" s="5">
         <v>17</v>
@@ -4549,13 +4413,13 @@
         <v>3</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4563,19 +4427,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>440</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>90</v>
@@ -4587,7 +4451,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K5" s="5">
         <v>22</v>
@@ -4602,13 +4466,13 @@
         <v>5</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4616,19 +4480,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>700</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>120</v>
@@ -4640,7 +4504,7 @@
         <v>240</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="K6" s="5">
         <v>34</v>
@@ -4655,13 +4519,13 @@
         <v>8</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4669,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>890</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>150</v>
@@ -4693,7 +4557,7 @@
         <v>410</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="K7" s="5">
         <v>43</v>
@@ -4708,13 +4572,13 @@
         <v>11</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4722,19 +4586,19 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>900</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>150</v>
@@ -4746,7 +4610,7 @@
         <v>400</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K8" s="5">
         <v>45</v>
@@ -4761,13 +4625,13 @@
         <v>11</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4775,19 +4639,19 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>900</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>150</v>
@@ -4799,7 +4663,7 @@
         <v>420</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K9" s="5">
         <v>45</v>
@@ -4814,13 +4678,13 @@
         <v>11</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4828,19 +4692,19 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>900</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G10">
         <v>150</v>
@@ -4852,7 +4716,7 @@
         <v>420</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K10" s="5">
         <v>45</v>
@@ -4867,13 +4731,13 @@
         <v>11</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4881,19 +4745,19 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>900</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <v>150</v>
@@ -4905,7 +4769,7 @@
         <v>420</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K11" s="5">
         <v>45</v>
@@ -4920,13 +4784,13 @@
         <v>11</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4934,19 +4798,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>700</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>120</v>
@@ -4958,7 +4822,7 @@
         <v>240</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="K12" s="5">
         <v>34</v>
@@ -4973,13 +4837,13 @@
         <v>8</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -4987,19 +4851,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E13">
         <v>890</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>150</v>
@@ -5011,7 +4875,7 @@
         <v>360</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="K13" s="5">
         <v>43</v>
@@ -5026,13 +4890,13 @@
         <v>9</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5040,19 +4904,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>900</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>150</v>
@@ -5064,7 +4928,7 @@
         <v>310</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="K14" s="5">
         <v>45</v>
@@ -5079,13 +4943,13 @@
         <v>8</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5093,19 +4957,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>900</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>150</v>
@@ -5117,7 +4981,7 @@
         <v>320</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="K15" s="5">
         <v>45</v>
@@ -5132,13 +4996,13 @@
         <v>8</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5146,19 +5010,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>900</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>150</v>
@@ -5170,7 +5034,7 @@
         <v>320</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="K16" s="5">
         <v>45</v>
@@ -5185,13 +5049,13 @@
         <v>8</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5199,19 +5063,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>900</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>150</v>
@@ -5223,7 +5087,7 @@
         <v>320</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="K17" s="5">
         <v>45</v>
@@ -5238,13 +5102,13 @@
         <v>8</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5252,19 +5116,19 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2">
         <v>1000</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>220</v>
@@ -5276,7 +5140,7 @@
         <v>400</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="K18" s="5">
         <v>50</v>
@@ -5291,13 +5155,13 @@
         <v>12</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5305,19 +5169,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>1000</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>220</v>
@@ -5329,7 +5193,7 @@
         <v>350</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="K19" s="5">
         <v>50</v>
@@ -5344,13 +5208,13 @@
         <v>11</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5358,19 +5222,19 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
         <v>1000</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>220</v>
@@ -5382,7 +5246,7 @@
         <v>360</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="K20" s="5">
         <v>50</v>
@@ -5397,13 +5261,13 @@
         <v>11</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5411,19 +5275,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E21" s="2">
         <v>1300</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>290</v>
@@ -5435,7 +5299,7 @@
         <v>360</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K21" s="5">
         <v>50</v>
@@ -5450,13 +5314,13 @@
         <v>13</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5464,19 +5328,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E22" s="2">
         <v>1300</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>290</v>
@@ -5488,7 +5352,7 @@
         <v>310</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K22" s="5">
         <v>50</v>
@@ -5503,13 +5367,13 @@
         <v>12</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -5517,19 +5381,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E23" s="2">
         <v>1300</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>290</v>
@@ -5541,7 +5405,7 @@
         <v>320</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="K23" s="5">
         <v>50</v>
@@ -5556,13 +5420,13 @@
         <v>12</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5575,7 +5439,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5586,29 +5450,29 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>203</v>
@@ -5617,7 +5481,7 @@
         <v>204</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5625,28 +5489,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5657,25 +5521,25 @@
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5683,25 +5547,25 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="D4" s="9">
         <v>130</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="I4" s="9">
         <v>13</v>
@@ -5712,25 +5576,25 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9">
         <v>130</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="I5" s="9">
         <v>19</v>
@@ -5741,25 +5605,25 @@
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D6" s="9">
         <v>130</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="I6" s="9">
         <v>34</v>
@@ -5770,25 +5634,25 @@
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D7" s="9">
         <v>130</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I7" s="9">
         <v>52</v>
@@ -5799,25 +5663,25 @@
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D8" s="9">
         <v>130</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I8" s="9">
         <v>56</v>
@@ -5828,25 +5692,25 @@
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D9" s="9">
         <v>130</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I9" s="9">
         <v>56</v>
@@ -5857,25 +5721,25 @@
         <v>0</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="D10" s="9">
         <v>130</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I10" s="9">
         <v>56</v>
@@ -5886,25 +5750,25 @@
         <v>0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D11" s="9">
         <v>130</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I11" s="9">
         <v>56</v>
@@ -5915,25 +5779,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D12" s="9">
         <v>130</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I12" s="9">
         <v>34</v>
@@ -5944,25 +5808,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D13" s="9">
         <v>130</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="I13" s="9">
         <v>46</v>
@@ -5973,25 +5837,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D14" s="9">
         <v>130</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="I14" s="9">
         <v>46</v>
@@ -6002,25 +5866,25 @@
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D15" s="9">
         <v>130</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="I15" s="9">
         <v>46</v>
@@ -6031,25 +5895,25 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D16" s="9">
         <v>130</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="I16" s="9">
         <v>46</v>
@@ -6060,25 +5924,25 @@
         <v>1</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D17" s="9">
         <v>130</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="I17" s="9">
         <v>46</v>
@@ -6089,25 +5953,25 @@
         <v>2</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D18" s="9">
         <v>175</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I18" s="9">
         <v>71</v>
@@ -6118,25 +5982,25 @@
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D19" s="9">
         <v>175</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I19" s="9">
         <v>71</v>
@@ -6147,25 +6011,25 @@
         <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D20" s="9">
         <v>175</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I20" s="9">
         <v>71</v>
@@ -6176,25 +6040,25 @@
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D21" s="9">
         <v>210</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="I21" s="9">
         <v>71</v>
@@ -6205,25 +6069,25 @@
         <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D22" s="9">
         <v>210</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="I22" s="9">
         <v>71</v>
@@ -6234,25 +6098,25 @@
         <v>3</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D23" s="9">
         <v>210</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="I23" s="9">
         <v>71</v>
@@ -6268,7 +6132,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6293,55 +6157,55 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -6349,52 +6213,52 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5">
         <v>600</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E2" s="5">
         <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -6402,52 +6266,52 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C3" s="5">
         <v>600</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -6455,7 +6319,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C4" s="5">
         <v>600</v>
@@ -6470,13 +6334,13 @@
         <v>200</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J4" s="5">
         <v>10</v>
@@ -6488,19 +6352,19 @@
         <v>300</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P4" s="10">
         <v>1</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -6508,7 +6372,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C5" s="5">
         <v>900</v>
@@ -6523,13 +6387,13 @@
         <v>300</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J5" s="5">
         <v>15</v>
@@ -6541,27 +6405,27 @@
         <v>400</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P5" s="10">
         <v>1</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C6" s="6">
         <v>1700</v>
@@ -6576,13 +6440,13 @@
         <v>600</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J6" s="5">
         <v>20</v>
@@ -6594,27 +6458,27 @@
         <v>600</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P6" s="10">
         <v>2</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C7" s="6">
         <v>2800</v>
@@ -6629,13 +6493,13 @@
         <v>800</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J7" s="5">
         <v>30</v>
@@ -6647,27 +6511,27 @@
         <v>800</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P7" s="10">
         <v>3</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C8" s="6">
         <v>3000</v>
@@ -6682,13 +6546,13 @@
         <v>1000</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J8" s="5">
         <v>35</v>
@@ -6700,27 +6564,27 @@
         <v>1000</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P8" s="10">
         <v>3.5</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>226</v>
+        <v>118</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="6">
         <v>3000</v>
@@ -6735,13 +6599,13 @@
         <v>1000</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J9" s="5">
         <v>35</v>
@@ -6753,19 +6617,19 @@
         <v>1000</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P9" s="10">
         <v>3.5</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -6773,7 +6637,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C10" s="6">
         <v>2800</v>
@@ -6788,13 +6652,13 @@
         <v>800</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J10" s="5">
         <v>30</v>
@@ -6806,19 +6670,19 @@
         <v>800</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P10" s="10">
         <v>3</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -6826,7 +6690,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="C11" s="6">
         <v>3000</v>
@@ -6841,13 +6705,13 @@
         <v>1000</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J11" s="5">
         <v>35</v>
@@ -6859,19 +6723,19 @@
         <v>1000</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P11" s="10">
         <v>3.5</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -6879,7 +6743,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C12" s="6">
         <v>2800</v>
@@ -6894,13 +6758,13 @@
         <v>800</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J12" s="5">
         <v>30</v>
@@ -6912,19 +6776,19 @@
         <v>800</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P12" s="10">
         <v>3</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -6932,7 +6796,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="C13" s="6">
         <v>3000</v>
@@ -6947,13 +6811,13 @@
         <v>1000</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J13" s="5">
         <v>35</v>
@@ -6965,19 +6829,19 @@
         <v>1000</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P13" s="10">
         <v>3.5</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6990,7 +6854,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7022,73 +6886,73 @@
   <sheetData>
     <row r="1" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -7096,70 +6960,70 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H2" s="10">
         <v>0.7</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J2" s="5">
         <v>40</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="5">
         <v>45</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U2" s="5">
         <v>4</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -7167,70 +7031,70 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H3" s="10">
         <v>0.9</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="J3" s="5">
         <v>40</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="5">
         <v>60</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U3" s="5">
         <v>5</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -7238,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -7250,7 +7114,7 @@
         <v>2.5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G4" s="6">
         <v>1000</v>
@@ -7280,19 +7144,19 @@
         <v>3</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="5">
         <v>90</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U4" s="5">
         <v>7</v>
@@ -7309,10 +7173,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
@@ -7321,7 +7185,7 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G5" s="6">
         <v>3000</v>
@@ -7351,19 +7215,19 @@
         <v>3</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="5">
         <v>150</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U5" s="5">
         <v>12</v>
@@ -7377,13 +7241,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5">
         <v>11</v>
@@ -7392,7 +7256,7 @@
         <v>2.5</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G6" s="6">
         <v>5000</v>
@@ -7422,19 +7286,19 @@
         <v>4</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="5">
         <v>280</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U6" s="5">
         <v>23</v>
@@ -7448,13 +7312,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5">
         <v>17</v>
@@ -7463,7 +7327,7 @@
         <v>2.5</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G7" s="6">
         <v>8000</v>
@@ -7493,19 +7357,19 @@
         <v>4</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="5">
         <v>400</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U7" s="5">
         <v>34</v>
@@ -7519,13 +7383,13 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5">
         <v>20</v>
@@ -7534,7 +7398,7 @@
         <v>2.5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G8" s="6">
         <v>10000</v>
@@ -7564,16 +7428,16 @@
         <v>4</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="5">
         <v>400</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T8" s="10">
         <v>1.8</v>
@@ -7590,13 +7454,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5">
         <v>20</v>
@@ -7605,7 +7469,7 @@
         <v>2.5</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G9" s="6">
         <v>10000</v>
@@ -7635,16 +7499,16 @@
         <v>3</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="5">
         <v>400</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T9" s="10">
         <v>1.8</v>
@@ -7664,10 +7528,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D10" s="5">
         <v>17</v>
@@ -7676,7 +7540,7 @@
         <v>2.5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G10" s="6">
         <v>8000</v>
@@ -7706,19 +7570,19 @@
         <v>3.5</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="5">
         <v>400</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U10" s="5">
         <v>34</v>
@@ -7735,10 +7599,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5">
         <v>20</v>
@@ -7747,7 +7611,7 @@
         <v>2.5</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G11" s="6">
         <v>10000</v>
@@ -7777,19 +7641,19 @@
         <v>3.5</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="5">
         <v>400</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U11" s="5">
         <v>40</v>
@@ -7806,10 +7670,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5">
         <v>17</v>
@@ -7818,7 +7682,7 @@
         <v>2.5</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G12" s="6">
         <v>8000</v>
@@ -7848,19 +7712,19 @@
         <v>4</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="5">
         <v>400</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U12" s="5">
         <v>34</v>
@@ -7877,10 +7741,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5">
         <v>20</v>
@@ -7889,7 +7753,7 @@
         <v>2.5</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G13" s="6">
         <v>10000</v>
@@ -7919,19 +7783,19 @@
         <v>4</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="5">
         <v>400</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="U13" s="5">
         <v>40</v>
